--- a/data/trans_orig/IP1016-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1016-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{427529B4-5F3B-49DA-BE88-C233FB06EADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E52A8D-7513-46E1-9158-B7F8BB14933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{697B23FA-D895-4D6D-9AF2-FBC8CEE5B4DA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AC801D55-7B7B-4A97-9B9D-5F8CDFB63ED7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,36 +67,78 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -106,25 +148,25 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -148,48 +190,6 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -211,27 +211,45 @@
     <t>Menores según si padecen tumor maligno en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
     <t>3,09%</t>
   </si>
   <si>
@@ -241,6 +259,24 @@
     <t>1,42%</t>
   </si>
   <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
     <t>99,32%</t>
   </si>
   <si>
@@ -253,42 +289,6 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>99,9%</t>
   </si>
   <si>
@@ -316,6 +316,36 @@
     <t>Menores según si padecen tumor maligno en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>99,65%</t>
   </si>
   <si>
@@ -340,58 +370,28 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
     <t>0,66%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E3F16A-0FA1-43C4-8D5D-7332CF1B2B4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C21C9A-8905-4FEF-A220-FFB533B2258D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -913,10 +913,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -928,10 +928,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -943,10 +943,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1015,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1030,10 +1030,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1045,10 +1045,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1223,10 +1223,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D10" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1238,10 +1238,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I10" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1253,10 +1253,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N10" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1325,10 +1325,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1340,10 +1340,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1355,10 +1355,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1378,10 +1378,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -1393,10 +1393,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -1408,10 +1408,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N13" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
@@ -1480,10 +1480,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1495,10 +1495,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1510,10 +1510,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1533,10 +1533,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1548,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1563,10 +1563,10 @@
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N16" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1635,10 +1635,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1650,10 +1650,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1665,10 +1665,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1853,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47207955-4485-47CC-AF78-0B68E11A8701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2BAB8-E3D1-4483-9700-55021CBDEDB5}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1971,10 +1971,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1986,31 +1986,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2034,7 +2034,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,10 +2073,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2088,10 +2088,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2103,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2135,7 +2135,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2147,10 +2147,10 @@
         <v>113338</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2162,10 +2162,10 @@
         <v>240981</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2189,7 +2189,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2198,13 +2198,13 @@
         <v>680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2213,13 +2213,13 @@
         <v>680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,46 +2281,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I10" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N10" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2359,7 +2359,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,10 +2383,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2398,10 +2398,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2413,10 +2413,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2436,46 +2436,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I13" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N13" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2499,7 +2499,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,10 +2538,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2553,10 +2553,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2568,10 +2568,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2591,46 +2591,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D16" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N16" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2654,7 +2654,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2708,10 +2708,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2723,10 +2723,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2911,7 +2911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A69BE89-80A5-4484-9665-9A731CC196F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7E67FB-366A-45BF-85D3-1742268B3F52}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3029,49 +3029,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>223569</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22527</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>334</v>
-      </c>
-      <c r="I4" s="7">
-        <v>207247</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>665</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>430816</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,19 +3080,19 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3107,22 +3107,22 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,10 +3131,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3146,10 +3146,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3161,10 +3161,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3193,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3208,7 +3208,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3223,7 +3223,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3247,7 +3247,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,49 +3339,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="D10" s="7">
-        <v>205736</v>
+        <v>223569</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I10" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>571</v>
+        <v>665</v>
       </c>
       <c r="N10" s="7">
-        <v>413156</v>
+        <v>430816</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,16 +3390,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>107</v>
@@ -3417,22 +3417,22 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,10 +3441,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3456,10 +3456,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3471,10 +3471,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3494,46 +3494,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3557,7 +3557,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,10 +3596,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3611,10 +3611,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3626,10 +3626,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3649,46 +3649,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N16" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3712,7 +3712,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,10 +3751,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3766,10 +3766,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3781,10 +3781,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP1016-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1016-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E52A8D-7513-46E1-9158-B7F8BB14933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81953554-3B8D-4167-A586-A816F38F0818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AC801D55-7B7B-4A97-9B9D-5F8CDFB63ED7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4319AC5D-B251-4399-9D02-2A21869967BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="121">
   <si>
     <t>Menores según si padecen tumor maligno en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,27 +106,18 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>99,01%</t>
   </si>
   <si>
@@ -118,18 +127,18 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
@@ -139,18 +148,18 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>99,18%</t>
   </si>
   <si>
@@ -160,18 +169,18 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>99,37%</t>
   </si>
   <si>
@@ -181,13 +190,13 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -199,18 +208,21 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si padecen tumor maligno en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>93,43%</t>
   </si>
   <si>
@@ -220,13 +232,19 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>98,95%</t>
@@ -235,28 +253,22 @@
     <t>99,4%</t>
   </si>
   <si>
-    <t>96,91%</t>
+    <t>96,67%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>99,25%</t>
@@ -268,13 +280,10 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -283,127 +292,115 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen tumor maligno en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
     <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen tumor maligno en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
   </si>
 </sst>
 </file>
@@ -414,7 +411,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -510,39 +507,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -594,7 +591,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -705,13 +702,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -720,6 +710,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -784,19 +781,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C21C9A-8905-4FEF-A220-FFB533B2258D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0884B845-2942-4BC9-B963-66B682A9AAF7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -913,10 +930,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -928,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -964,10 +981,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -979,34 +996,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1021,13 +1038,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1036,13 +1053,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1051,13 +1068,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1068,49 +1085,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>127633</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>116002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>243635</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1119,49 +1136,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>127633</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>116002</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>243635</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1176,13 +1193,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1191,13 +1208,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1206,13 +1223,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1223,49 +1240,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>212142</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>195163</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>407305</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,49 +1291,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>212142</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>195163</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>407305</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,13 +1348,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1346,13 +1363,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1361,13 +1378,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,49 +1395,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>149657</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>287474</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,49 +1446,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>149657</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>287474</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,13 +1503,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1501,13 +1518,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1516,13 +1533,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,49 +1550,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207824</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>417139</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,49 +1601,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207824</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>417139</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,13 +1658,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1656,13 +1673,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1671,13 +1688,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,49 +1705,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1086</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>722700</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" s="7">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>681021</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M19" s="7">
-        <v>2104</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1403721</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,49 +1756,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1086</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>722700</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>681021</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>2104</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>1403721</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,13 +1813,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1811,13 +1828,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1826,13 +1843,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1853,8 +1875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2BAB8-E3D1-4483-9700-55021CBDEDB5}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73158BEF-1B17-409B-A0B2-CDA203D75009}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1870,7 +1892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1971,49 +1993,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>47828</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,49 +2044,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>47828</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +2101,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2094,13 +2116,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2109,13 +2131,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,49 +2148,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>127643</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H7" s="7">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>113338</v>
+        <v>680</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7">
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>240981</v>
+        <v>680</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,49 +2199,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>127643</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7">
-        <v>680</v>
+        <v>113338</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="N8" s="7">
-        <v>680</v>
+        <v>240981</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2256,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2249,13 +2271,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2264,13 +2286,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,49 +2303,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>205398</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>427376</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,49 +2354,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>205398</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>427376</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,16 +2408,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2404,13 +2426,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2419,13 +2441,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,49 +2458,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>165985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154839</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>320824</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,49 +2509,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>165985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>154839</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>320824</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2566,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2559,13 +2581,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2574,13 +2596,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,49 +2613,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207082</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>210300</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>417382</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,49 +2664,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207082</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>210300</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>417382</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2721,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2714,13 +2736,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2729,13 +2751,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,49 +2768,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1066</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>748142</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" s="7">
-        <v>1017</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>706248</v>
+        <v>680</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
-        <v>2083</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1454390</v>
+        <v>680</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,49 +2819,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>748142</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>1017</v>
       </c>
       <c r="I20" s="7">
-        <v>680</v>
+        <v>706248</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>2083</v>
       </c>
       <c r="N20" s="7">
-        <v>680</v>
+        <v>1454390</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2876,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2869,13 +2891,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -2884,13 +2906,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2911,8 +2938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7E67FB-366A-45BF-85D3-1742268B3F52}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5FFF41-2D76-41CB-9D19-EBDD0E1CC440}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2928,7 +2955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3029,49 +3056,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,49 +3107,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3164,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3152,13 +3179,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3167,13 +3194,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,49 +3211,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>233682</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,49 +3262,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>122502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>111180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>233682</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3319,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3307,13 +3334,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3322,13 +3349,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,49 +3366,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>331</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>223569</v>
+        <v>790</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>334</v>
-      </c>
-      <c r="I10" s="7">
-        <v>207247</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>665</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>430816</v>
+        <v>790</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,49 +3417,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="D11" s="7">
-        <v>790</v>
+        <v>223569</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
+        <v>334</v>
+      </c>
+      <c r="I11" s="7">
+        <v>207247</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>665</v>
       </c>
       <c r="N11" s="7">
-        <v>790</v>
+        <v>430816</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3474,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3462,13 +3489,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3477,13 +3504,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,49 +3521,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>166673</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>259</v>
-      </c>
-      <c r="I13" s="7">
-        <v>155997</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>507</v>
-      </c>
-      <c r="N13" s="7">
-        <v>322670</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,49 +3572,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>166673</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>259</v>
+      </c>
+      <c r="I14" s="7">
+        <v>155997</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>507</v>
+      </c>
+      <c r="N14" s="7">
+        <v>322670</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3629,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3617,13 +3644,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3632,13 +3659,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,49 +3676,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>205736</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>207420</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>413156</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,49 +3727,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>205736</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>207420</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>413156</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3784,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3772,13 +3799,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3787,13 +3814,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,49 +3831,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1064</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>744054</v>
+        <v>790</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H19" s="7">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M19" s="7">
-        <v>2125</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1448425</v>
+        <v>790</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,49 +3882,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>1064</v>
       </c>
       <c r="D20" s="7">
-        <v>790</v>
+        <v>744054</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>704371</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>2125</v>
       </c>
       <c r="N20" s="7">
-        <v>790</v>
+        <v>1448425</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3939,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -3927,13 +3954,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -3942,13 +3969,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1016-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1016-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81953554-3B8D-4167-A586-A816F38F0818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FBEB6C-5FB4-47B9-A214-5EB8FBF3B6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4319AC5D-B251-4399-9D02-2A21869967BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B24625E-6FA8-4808-B23C-B3A4BA0D9CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="125">
   <si>
     <t>Menores según si padecen tumor maligno en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -127,7 +127,7 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -148,7 +148,7 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -238,13 +238,13 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,33%</t>
+    <t>3,07%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,41%</t>
   </si>
   <si>
     <t>98,95%</t>
@@ -253,13 +253,13 @@
     <t>99,4%</t>
   </si>
   <si>
-    <t>96,67%</t>
+    <t>96,93%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,49%</t>
+    <t>98,59%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -295,54 +295,60 @@
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen tumor maligno en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen tumor maligno en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
     <t>0,35%</t>
   </si>
   <si>
@@ -352,7 +358,7 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -364,7 +370,7 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,99%</t>
+    <t>99,08%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -394,13 +400,19 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,52%</t>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
 </sst>
 </file>
@@ -812,7 +824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0884B845-2942-4BC9-B963-66B682A9AAF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3382E637-2DA8-44A7-BF0E-E2CF0DC53684}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1875,7 +1887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73158BEF-1B17-409B-A0B2-CDA203D75009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B843CA5C-33CF-4D2B-ACA2-194928ED1664}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2357,7 +2369,7 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2408,7 +2420,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2938,7 +2950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5FFF41-2D76-41CB-9D19-EBDD0E1CC440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A735CE2C-F9D9-442C-93BC-AF5485E0F326}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3253,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3283,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3286,7 +3298,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3301,7 +3313,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3372,13 +3384,13 @@
         <v>790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3393,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3408,7 +3420,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,10 +3435,10 @@
         <v>223569</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3441,7 +3453,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3456,7 +3468,7 @@
         <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3533,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3548,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3563,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3593,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3596,7 +3608,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3611,7 +3623,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3688,7 +3700,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3736,7 +3748,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3837,13 +3849,13 @@
         <v>790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3873,7 +3885,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,10 +3900,10 @@
         <v>744054</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -3921,7 +3933,7 @@
         <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>17</v>

--- a/data/trans_orig/IP1016-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1016-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FBEB6C-5FB4-47B9-A214-5EB8FBF3B6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2CBA0D-39AE-4BD6-812E-3163B02E6EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B24625E-6FA8-4808-B23C-B3A4BA0D9CA4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AF6E8284-D062-4FED-A099-DFBA2B2E0532}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="106">
   <si>
     <t>Menores según si padecen tumor maligno en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,117 +94,96 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
+    <t>99,39%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
+    <t>99,17%</t>
+  </si>
+  <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>99,58%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
     <t>0,33%</t>
   </si>
   <si>
+    <t>99,3%</t>
+  </si>
+  <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
+    <t>99,81%</t>
+  </si>
+  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -214,69 +193,57 @@
     <t>Menores según si padecen tumor maligno en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>99,21%</t>
+  </si>
+  <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>99,61%</t>
   </si>
   <si>
@@ -295,58 +262,43 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,48%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,23%</t>
+    <t>0,27%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>99,52%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,77%</t>
+    <t>99,73%</t>
   </si>
   <si>
     <t>Menores según si padecen tumor maligno en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -355,10 +307,10 @@
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -367,27 +319,24 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>99,26%</t>
+  </si>
+  <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
@@ -400,19 +349,13 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>0,46%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>99,54%</t>
   </si>
 </sst>
 </file>
@@ -824,8 +767,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3382E637-2DA8-44A7-BF0E-E2CF0DC53684}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C75324C-B08D-4424-9FC8-090FCD46D291}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -993,10 +936,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1008,10 +951,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1023,10 +966,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1044,10 +987,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1059,10 +1002,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1074,10 +1017,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1148,10 +1091,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D8" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1163,10 +1106,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I8" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1178,10 +1121,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N8" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1199,10 +1142,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1214,10 +1157,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1229,10 +1172,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1303,10 +1246,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1318,10 +1261,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1333,10 +1276,10 @@
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N11" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1354,10 +1297,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1369,10 +1312,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1384,10 +1327,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1458,10 +1401,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1473,10 +1416,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1488,10 +1431,10 @@
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N14" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1509,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1524,10 +1467,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1539,10 +1482,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1556,7 +1499,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1574,37 +1517,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,46 +1556,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D17" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1086</v>
+      </c>
+      <c r="I17" s="7">
+        <v>722700</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>274</v>
-      </c>
-      <c r="I17" s="7">
-        <v>209315</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2104</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1403721</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="7">
-        <v>580</v>
-      </c>
-      <c r="N17" s="7">
-        <v>417139</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1664,10 +1607,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1679,10 +1622,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1694,10 +1637,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1710,171 +1653,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D20" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I20" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1887,8 +1674,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B843CA5C-33CF-4D2B-ACA2-194928ED1664}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DEACFC-4174-43E5-BCC5-A3EA5B0E3E2B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1904,7 +1691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2005,19 +1792,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2032,22 +1819,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,49 +1843,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>135711</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>288809</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2122,10 +1909,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2137,10 +1924,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2172,37 +1959,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,49 +1998,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>113338</v>
+        <v>221977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>339</v>
+        <v>638</v>
       </c>
       <c r="N8" s="7">
-        <v>240981</v>
+        <v>427376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,10 +2049,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2277,10 +2064,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2292,10 +2079,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2327,37 +2114,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,46 +2153,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N11" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2417,10 +2204,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2432,10 +2219,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2447,10 +2234,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2482,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2497,7 +2284,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2512,7 +2299,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,46 +2308,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I14" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N14" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2572,10 +2359,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2587,10 +2374,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2602,10 +2389,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2619,25 +2406,25 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2652,22 +2439,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,49 +2463,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>281</v>
+        <v>1017</v>
       </c>
       <c r="D17" s="7">
-        <v>207082</v>
+        <v>706248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I17" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>556</v>
+        <v>2083</v>
       </c>
       <c r="N17" s="7">
-        <v>417382</v>
+        <v>1454390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -2742,10 +2529,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2757,10 +2544,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2773,171 +2560,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>680</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>680</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D20" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I20" s="7">
-        <v>706248</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2083</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1454390</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2950,8 +2581,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A735CE2C-F9D9-442C-93BC-AF5485E0F326}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987D6137-765A-455C-B438-5F4B8218BEEF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2967,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3080,7 +2711,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3095,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3110,7 +2741,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,46 +2750,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3170,10 +2801,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3185,10 +2816,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3200,10 +2831,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3235,37 +2866,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,49 +2905,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>223569</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>328</v>
+        <v>665</v>
       </c>
       <c r="N8" s="7">
-        <v>233682</v>
+        <v>430816</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,10 +2956,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3340,10 +2971,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3355,10 +2986,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3378,19 +3009,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3405,22 +3036,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,49 +3060,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>223569</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>665</v>
+        <v>507</v>
       </c>
       <c r="N11" s="7">
-        <v>430816</v>
+        <v>322670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,10 +3111,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3495,10 +3126,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3510,10 +3141,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3545,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3560,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3575,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,46 +3215,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N14" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3635,10 +3266,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3650,10 +3281,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3665,10 +3296,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3682,7 +3313,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3700,37 +3331,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,49 +3370,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D17" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>1064</v>
       </c>
       <c r="I17" s="7">
-        <v>207420</v>
+        <v>744054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>571</v>
+        <v>2125</v>
       </c>
       <c r="N17" s="7">
-        <v>413156</v>
+        <v>1448425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,10 +3421,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -3805,10 +3436,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3820,10 +3451,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3836,171 +3467,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>790</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>790</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D20" s="7">
-        <v>744054</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I20" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2125</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1448425</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>56</v>
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
